--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2362.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2362.xlsx
@@ -354,7 +354,7 @@
         <v>1.507602625907637</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.255229589841733</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2362.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2362.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8212644785269524</v>
+        <v>1.010597825050354</v>
       </c>
       <c r="B1">
-        <v>1.507602625907637</v>
+        <v>2.124265193939209</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.063383102416992</v>
       </c>
       <c r="D1">
-        <v>2.255229589841733</v>
+        <v>1.280569672584534</v>
       </c>
       <c r="E1">
-        <v>1.267427095424095</v>
+        <v>1.265876412391663</v>
       </c>
     </row>
   </sheetData>
